--- a/src/files/tempPDF/Production.xlsx
+++ b/src/files/tempPDF/Production.xlsx
@@ -11,16 +11,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Édité le : 30/01/2025 à 20:08:38
-  par :</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Édité le : 31/01/2025 à 23:56:46
+Par : FouedAmich</t>
   </si>
   <si>
     <t>Etat Du Production : SOFIEN AMICH</t>
   </si>
   <si>
-    <t>Le : 12/12/2024</t>
+    <t/>
   </si>
   <si>
     <t>Solde exact : 820</t>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>724,00 DT</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>820,00 DT</t>
@@ -199,20 +196,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -220,9 +217,8 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -230,9 +226,8 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -240,9 +235,8 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -250,7 +244,6 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
@@ -297,18 +290,18 @@
         <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="A6:A6"/>
     <mergeCell ref="A7:A7"/>
   </mergeCells>

--- a/src/files/tempPDF/Production.xlsx
+++ b/src/files/tempPDF/Production.xlsx
@@ -11,24 +11,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Édité le : 31/01/2025 à 23:56:46
-Par : FouedAmich</t>
-  </si>
-  <si>
-    <t>Etat Du Production : SOFIEN AMICH</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>Édité le : 04/02/2025 à 18:07:09
+Par : Utilisateur inconnu</t>
+  </si>
+  <si>
+    <t>Etats des productions </t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Solde exact : 820</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
+    <t>Producteur</t>
+  </si>
+  <si>
     <t>Comission</t>
   </si>
   <si>
@@ -41,9 +41,45 @@
     <t>Prix Total</t>
   </si>
   <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>MOHAMED1 AMICH</t>
+  </si>
+  <si>
+    <t>800,00</t>
+  </si>
+  <si>
+    <t>6 700,00</t>
+  </si>
+  <si>
+    <t>Non payée</t>
+  </si>
+  <si>
+    <t>7 500,00</t>
+  </si>
+  <si>
+    <t>C1 C1</t>
+  </si>
+  <si>
+    <t>112,00</t>
+  </si>
+  <si>
+    <t>4,00</t>
+  </si>
+  <si>
+    <t>Payée</t>
+  </si>
+  <si>
+    <t>116,00</t>
+  </si>
+  <si>
     <t>2024-12-12</t>
   </si>
   <si>
+    <t>SOFIEN AMICH</t>
+  </si>
+  <si>
     <t>96,00</t>
   </si>
   <si>
@@ -56,16 +92,79 @@
     <t>820,00</t>
   </si>
   <si>
+    <t>120,00</t>
+  </si>
+  <si>
+    <t>35 932,00</t>
+  </si>
+  <si>
+    <t>36 052,00</t>
+  </si>
+  <si>
+    <t>2024-12-13</t>
+  </si>
+  <si>
+    <t>MOHAMED MOHAMED</t>
+  </si>
+  <si>
+    <t>864,00</t>
+  </si>
+  <si>
+    <t>39 141,00</t>
+  </si>
+  <si>
+    <t>40 005,00</t>
+  </si>
+  <si>
+    <t>ALI JEMAA</t>
+  </si>
+  <si>
+    <t>560,00</t>
+  </si>
+  <si>
+    <t>38 440,00</t>
+  </si>
+  <si>
+    <t>39 000,00</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>19 472,00</t>
+  </si>
+  <si>
+    <t>-10 727,00</t>
+  </si>
+  <si>
+    <t>8 745,00</t>
+  </si>
+  <si>
+    <t>2025-01-03</t>
+  </si>
+  <si>
+    <t>FERHAT JEMAA</t>
+  </si>
+  <si>
+    <t>16,00</t>
+  </si>
+  <si>
+    <t>-6,00</t>
+  </si>
+  <si>
+    <t>10,00</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>96,00 DT</t>
-  </si>
-  <si>
-    <t>724,00 DT</t>
-  </si>
-  <si>
-    <t>820,00 DT</t>
+    <t>22 040,00 DT</t>
+  </si>
+  <si>
+    <t>110 208,00 DT</t>
+  </si>
+  <si>
+    <t>132 248,00 DT</t>
   </si>
 </sst>
 </file>
@@ -196,20 +295,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -217,8 +317,9 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -226,8 +327,9 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -235,75 +337,227 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>17</v>
+      <c r="F14" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:A6"/>
-    <mergeCell ref="A7:A7"/>
+  <mergeCells count="17">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B6"/>
+    <mergeCell ref="B7:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B10"/>
+    <mergeCell ref="B11:B11"/>
+    <mergeCell ref="A12:A12"/>
+    <mergeCell ref="B12:B12"/>
+    <mergeCell ref="A13:A13"/>
+    <mergeCell ref="B13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
